--- a/src/test/resources/order/order_history.xlsx
+++ b/src/test/resources/order/order_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunosuke/Documents/workspace-spring-tool-suite-4-4.13.1.RELEASE/ec-202201a-develop/src/test/resources/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4371439F-5D48-004E-92C1-3FB020A49E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24024DDA-04B5-3E40-8B4D-E70CF5C24537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="1240" windowWidth="17280" windowHeight="10680" xr2:uid="{611B2D67-5AE5-4CA9-B38E-DF57C7966C0C}"/>
+    <workbookView xWindow="1180" yWindow="2520" windowWidth="17280" windowHeight="10680" xr2:uid="{611B2D67-5AE5-4CA9-B38E-DF57C7966C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A79D0B-E5B6-4596-B401-8106AC2B3A28}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -589,6 +589,23 @@
         <v>800</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
